--- a/outputs/tab3_gerencia_setor.xlsx
+++ b/outputs/tab3_gerencia_setor.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="751">
   <si>
     <t xml:space="preserve">sexo</t>
   </si>
@@ -337,12 +337,477 @@
     <t xml:space="preserve">24.545887238760443</t>
   </si>
   <si>
+    <t xml:space="preserve">36428.32557554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27833.92805585413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45022.723095225876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.83026609601954</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nordeste</t>
   </si>
   <si>
+    <t xml:space="preserve">8231.74990392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4577.915232887735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11885.584574952263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2727929765003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29232.39861467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21747.60024664446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36717.19698269555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.93769953830957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47582.19456478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35204.661304506764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59959.72782505324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0870086773345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104169.84776371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86162.77534779448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122176.92017962552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.72083553041584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10504.14150371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4773.898772784194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16234.384234635805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.71147173453281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22214.1334242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14068.197659377845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30360.069189022157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.581426021678197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31907.43604078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24457.651816151363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39357.22026540864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.10787874901698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13756.72902275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8515.75990409648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18997.698141403518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.802288874147834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14454.66278692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6227.258692019523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22682.06688182048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.42515174076887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30010.02712504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18488.438448395646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41531.615801684355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.16973390398046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3482.2428879599997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-403.5310536630159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7368.016829583015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7272070234997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23026.45159895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15771.670788342957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30281.232409557044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.06230046169044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23343.89903053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15943.892231716214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30743.905829343785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.91299132266551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61915.06944565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49276.93575144685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74553.20313985314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.27916446958416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5481.10616529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-50.78411253156173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11012.996443111562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.288528265467185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50425.16537257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40479.014500889134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60371.31624425087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4185739783218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16358.27244144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11034.833682776783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21681.711200103215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.892121250983024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10895.89598655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6330.726950977673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15461.065022122326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.19771112585217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4967.08167558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1423.2211537877183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8510.942197372282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.574848259231132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3712.6208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1543.0550121825568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5882.186587817443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.859848893770554</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ceará</t>
   </si>
   <si>
+    <t xml:space="preserve">1833.13409253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511.07278049746265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3155.1954045625375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7422.0761264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3034.3630108141133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11809.789241985887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.851805170103646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8023.9692484199995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4124.927535941448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11923.010960898551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.555943567759925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23317.26975781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15860.79755817004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30773.741957449965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.190731642192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5321.23079562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594.7958091336404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10047.66578210636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.4548116565161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4897.69686548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1494.301879147985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8301.091851812016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.52712348286863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14419.76958348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9524.913948593352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19314.625218366647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.58736442834902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2853.85498772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749.6403015122223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4958.069673927777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.40346278875035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2987.84495802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.28795278841471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5890.401963251585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.57311105404011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3885.88980545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1256.19846127119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6515.58114962881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.140151106229446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7173.42564895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300.5690498831073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12046.282248016894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.14819482989636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6163.6982932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2161.7048388151584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10165.691747584842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.44405643224007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12450.4984056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6931.105339358807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17969.89147184119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.809268357807994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1730.9779088999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-452.1680811049291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3914.123898904929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.545188343483897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7187.2883113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3303.422807631234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11071.153814968766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.47287651713138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7906.22205762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4207.9640668520515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11604.480048387948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.412635571650966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1443.89526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233.06534541279666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2654.725178267204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.59653721124965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">274.9523016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-274.6263525679472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">824.5309557679473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.426888945959892</t>
+  </si>
+  <si>
     <t xml:space="preserve">122825.75966106</t>
   </si>
   <si>
@@ -607,6 +1072,471 @@
     <t xml:space="preserve">26.748375709913624</t>
   </si>
   <si>
+    <t xml:space="preserve">36404.38806171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25661.618482929734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47147.157640490266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.89558098900416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8594.12272598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4012.6453765348524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13175.600075425147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.88054726110114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30900.41689277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20233.941007532703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41566.8927780073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.939152486922715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40140.7526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28835.12827104873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51446.37705115127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.192408858199286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70909.88358072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54915.335576018835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86904.43158542115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.13756017895591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13879.11223153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7118.08843548767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20640.13602757233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.36527444756052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21256.15906036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13884.08787810792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28628.230242612084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.82141937549384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32413.12881413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23640.42928498788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41185.82834327212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.05810200889314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14039.87552463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8462.761789195836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19616.989260064165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.70595514930069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10422.08522082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5524.775845112322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15319.394596527676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.33229212574673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19692.479408940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12287.513283203323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27097.44553467668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.10441901099584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.09251235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-79.5099979623696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451.6950226623696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.119452738898857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24338.91999206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15106.640755277476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33571.199228842524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.06084751307728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28838.60985148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18286.414442363275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39390.805260596724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.807591141800714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48996.79394561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37260.19743664951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60733.390454570486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.86243982104409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1651.6544083400001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-40.04125574742625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3343.3500724274263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.634725552439473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55145.9783485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40491.73934188593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69800.21735511407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.17858062450617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13201.83682353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7292.708460398723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19110.965186661277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.941897991106853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8712.994098180001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4299.312945107385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13126.675251252618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.29404485069931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2392.11802911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360.48297977369407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4423.753078446306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.66770787425326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2870.92339419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235.71606478177864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5506.130723598222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.97947820323556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">482.5240655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-472.6584628356618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1437.7065938356618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3669.52706725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347.6551881705541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6991.398946329446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.90189688504436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6315.6218719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2747.363571122626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9883.880172677375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.67572753396459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12851.78628862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6536.581449223731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19166.99112801627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.12104416599989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">982.27944499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-184.0526216630974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2148.6115116430974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.805700207769235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4325.73557452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1397.7641259831535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7253.707023056847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.21715710821034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12439.15984419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6671.101991766541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18207.21769661346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.00155690480105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2120.56191217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-38.17057876230365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4279.2944031023035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.00467367526542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2634.33489026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374.11674500610343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4894.553035513896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.60099504450984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996.74156598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.136356389800767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000.6194883498006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.020521796764434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3834.32718175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750.6493927340143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6918.0049707659855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.09810311495564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3602.7914961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800.918504662402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6404.664487537599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.32427246603542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8886.3045552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4622.413270443044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13150.195839956956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.87895583400012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989.9434951400001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-501.0792417891014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2480.9662320691014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.194299792230765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7957.29897375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3750.5563544379775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12164.041593062022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.78284289178966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5330.67327696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2357.089829881767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8304.256724038234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.99844309519896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1806.06474411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-110.59552112745723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3722.725009347457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.99532632473458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">675.0896826200001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-301.5542747998246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1651.7336400398249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.399004955490156</t>
+  </si>
+  <si>
     <t xml:space="preserve">136558.63326735</t>
   </si>
   <si>
@@ -869,6 +1799,480 @@
   </si>
   <si>
     <t xml:space="preserve">25.964057269234058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42940.77015891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32035.505237085585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53846.03508073442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7202679104498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8982.81457836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4824.6621037964305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13140.967052923568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.96109660407039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23602.7779093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16254.154152509283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30951.401666090715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.034645483141674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49859.10389883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38185.58669748301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61532.621100176984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.192764160574924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80609.75403649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65498.620302529154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95720.88777045086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.50719012865907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15458.47589007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8635.402615471865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22281.549164668133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.69943845433953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23048.05094343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15289.457704629967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30806.644182230033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.767724516243852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31553.367531840002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21883.39539349759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41223.33967018241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2398037799286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512.60658525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-547.6206596750875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1572.8338301750873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7951.99317613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4782.060606518309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11121.925745741692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.46033420684803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10041.44415056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5326.358996424463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14756.529304695538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.56685830897752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28962.40720677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19375.75569432207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38549.05871921793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.279732089550194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378.07738333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-367.4458011846772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1123.6005678446772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.038903395929618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22645.76107016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15780.106078616249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29511.41606170375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.96535451685832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35820.11175288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22124.18128900047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49516.04221675954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.807235839425076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54852.45458436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43735.43663877717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65969.47252994282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.49280987134093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4696.1382786799995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1708.2651117888995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7684.011445571099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.30056154566047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57069.68979208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45324.21145894583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68815.16812521416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.23227548375614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13368.9782519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6623.072478705031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20114.88402509497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.760196220071407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10345.13527733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4039.2739145667947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16650.996640093206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.53966579315197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2904.09002405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.975385913617174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5764.204662186383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.43314169102249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7083.286348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2112.128459270225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12054.444236729774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.4370027672547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.35768866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-185.24330848380401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">559.958685803804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5719.88645774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2045.9014103861073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9393.871505093892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.92739303528535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9147.7951232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3655.0761758600247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14640.514070539975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.508833511652014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15654.8467622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8860.656902705403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22449.0366216946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.58134488053848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3159.2723963999997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-685.3897503109852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7003.934543110985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.30920058933343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3016.74357907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477.60593204640463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5555.881226093596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.460618527854884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9939.02453345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4320.125646684975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15557.923420215024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.45246321014275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2213.54502632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411.6736727623072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4015.4163798776926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.362867840364544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1911.142792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">416.21926642157155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3406.0663175784284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.135984740244965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6172.10969068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1599.3106154121406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10744.908765947861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.56299723274532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4154.34774827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">778.1901232855525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7530.5053732544475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.07260696471465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5970.32002182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-673.208477402567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12613.848521042568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.49116648834799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10186.1886144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5516.901897373404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14855.475331426596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.418655119461526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">459.21497386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-131.89651118484642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050.3264589048463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.690799410666562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6276.80569967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2156.230557830755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10397.380841509244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.53938147214512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2893.39437424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254.0991386734031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5532.689609806597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.547536789857244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3270.5673392199997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-816.0319467970389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7357.166625237038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.637132159635456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1115.88339578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1024.134542733965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3255.901334293965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.86401525975502</t>
   </si>
 </sst>
 </file>
@@ -1070,9 +2474,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +2484,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.82"/>
@@ -1667,19 +3071,19 @@
         <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>2019</v>
@@ -1693,19 +3097,19 @@
         <v>15</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>2019</v>
@@ -1719,19 +3123,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>2019</v>
@@ -1745,19 +3149,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>2019</v>
@@ -1771,19 +3175,19 @@
         <v>30</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2019</v>
@@ -1797,19 +3201,19 @@
         <v>35</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>2019</v>
@@ -1823,19 +3227,19 @@
         <v>40</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2019</v>
@@ -1849,19 +3253,19 @@
         <v>45</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>2019</v>
@@ -1872,22 +3276,22 @@
         <v>8</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>2019</v>
@@ -1898,22 +3302,22 @@
         <v>8</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>2019</v>
@@ -1921,25 +3325,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2019</v>
@@ -1950,22 +3354,22 @@
         <v>64</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2019</v>
@@ -1976,22 +3380,22 @@
         <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>2019</v>
@@ -2002,22 +3406,22 @@
         <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>2019</v>
@@ -2028,22 +3432,22 @@
         <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2019</v>
@@ -2054,22 +3458,22 @@
         <v>64</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>2019</v>
@@ -2080,22 +3484,22 @@
         <v>64</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>2019</v>
@@ -2106,22 +3510,22 @@
         <v>64</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>2019</v>
@@ -2132,22 +3536,22 @@
         <v>64</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>2019</v>
@@ -2158,22 +3562,22 @@
         <v>64</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>2019</v>
@@ -2181,25 +3585,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>2019</v>
@@ -2210,22 +3614,22 @@
         <v>8</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>13</v>
+        <v>193</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>2019</v>
@@ -2236,22 +3640,22 @@
         <v>8</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2019</v>
@@ -2262,22 +3666,22 @@
         <v>8</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2019</v>
@@ -2288,22 +3692,22 @@
         <v>8</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>2019</v>
@@ -2314,22 +3718,22 @@
         <v>8</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>2019</v>
@@ -2340,22 +3744,22 @@
         <v>8</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>2019</v>
@@ -2366,22 +3770,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>2019</v>
@@ -2392,22 +3796,22 @@
         <v>8</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2019</v>
@@ -2418,22 +3822,22 @@
         <v>8</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>100</v>
+        <v>224</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>2019</v>
@@ -2441,25 +3845,25 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>2019</v>
@@ -2467,25 +3871,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>63</v>
+        <v>233</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>2019</v>
@@ -2496,22 +3900,22 @@
         <v>64</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2019</v>
@@ -2522,22 +3926,22 @@
         <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>71</v>
+        <v>240</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>2019</v>
@@ -2548,22 +3952,22 @@
         <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>2019</v>
@@ -2574,22 +3978,22 @@
         <v>64</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>2019</v>
@@ -2600,22 +4004,22 @@
         <v>64</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>2019</v>
@@ -2626,22 +4030,22 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>87</v>
+        <v>256</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>88</v>
+        <v>257</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>2019</v>
@@ -2652,22 +4056,22 @@
         <v>64</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>92</v>
+        <v>261</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>2019</v>
@@ -2675,80 +4079,80 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>98</v>
+        <v>267</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>99</v>
+        <v>268</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2756,19 +4160,19 @@
         <v>8</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>109</v>
+        <v>276</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>14</v>
@@ -2782,19 +4186,19 @@
         <v>8</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>112</v>
+        <v>279</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>14</v>
@@ -2808,19 +4212,19 @@
         <v>8</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>14</v>
@@ -2834,19 +4238,19 @@
         <v>8</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>119</v>
+        <v>286</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>120</v>
+        <v>287</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>121</v>
+        <v>288</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>14</v>
@@ -2860,19 +4264,19 @@
         <v>8</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>123</v>
+        <v>290</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>14</v>
@@ -2886,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>14</v>
@@ -2912,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>133</v>
+        <v>300</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>14</v>
@@ -2938,19 +4342,19 @@
         <v>8</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>135</v>
+        <v>302</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>136</v>
+        <v>303</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>14</v>
@@ -2961,22 +4365,22 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>139</v>
+        <v>306</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>14</v>
@@ -2987,22 +4391,22 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>145</v>
+        <v>312</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>14</v>
@@ -3013,22 +4417,22 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>147</v>
+        <v>314</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>148</v>
+        <v>315</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>14</v>
@@ -3042,19 +4446,19 @@
         <v>64</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>154</v>
+        <v>321</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>14</v>
@@ -3068,19 +4472,19 @@
         <v>64</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>155</v>
+        <v>322</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>156</v>
+        <v>323</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>14</v>
@@ -3094,19 +4498,19 @@
         <v>64</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>161</v>
+        <v>328</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>14</v>
@@ -3120,19 +4524,19 @@
         <v>64</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>14</v>
@@ -3146,19 +4550,19 @@
         <v>64</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>169</v>
+        <v>336</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>170</v>
+        <v>337</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>14</v>
@@ -3172,19 +4576,19 @@
         <v>64</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>172</v>
+        <v>339</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>174</v>
+        <v>341</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>14</v>
@@ -3198,19 +4602,19 @@
         <v>64</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>175</v>
+        <v>342</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>178</v>
+        <v>345</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>14</v>
@@ -3224,19 +4628,19 @@
         <v>64</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>179</v>
+        <v>346</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>180</v>
+        <v>347</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>182</v>
+        <v>349</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>14</v>
@@ -3247,25 +4651,25 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>183</v>
+        <v>350</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>185</v>
+        <v>352</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>186</v>
+        <v>353</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>2024</v>
@@ -3273,25 +4677,25 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>189</v>
+        <v>356</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>2024</v>
@@ -3299,25 +4703,25 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>191</v>
+        <v>358</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>192</v>
+        <v>359</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>193</v>
+        <v>360</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>2024</v>
@@ -3328,22 +4732,22 @@
         <v>8</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>108</v>
+        <v>363</v>
       </c>
       <c r="E87" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>2024</v>
@@ -3354,22 +4758,22 @@
         <v>8</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>111</v>
+        <v>366</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>112</v>
+        <v>367</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>113</v>
+        <v>368</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>2024</v>
@@ -3380,22 +4784,22 @@
         <v>8</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>117</v>
+        <v>372</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>118</v>
+        <v>373</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>2024</v>
@@ -3406,22 +4810,22 @@
         <v>8</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>119</v>
+        <v>374</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>120</v>
+        <v>375</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>121</v>
+        <v>376</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>2024</v>
@@ -3432,22 +4836,22 @@
         <v>8</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>123</v>
+        <v>378</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>124</v>
+        <v>379</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>125</v>
+        <v>380</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>126</v>
+        <v>381</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>2024</v>
@@ -3458,22 +4862,22 @@
         <v>8</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>127</v>
+        <v>382</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>128</v>
+        <v>383</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>129</v>
+        <v>384</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>130</v>
+        <v>385</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>2024</v>
@@ -3484,22 +4888,22 @@
         <v>8</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>132</v>
+        <v>387</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>134</v>
+        <v>389</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>2024</v>
@@ -3507,25 +4911,25 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>135</v>
+        <v>390</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>136</v>
+        <v>391</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>137</v>
+        <v>392</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>138</v>
+        <v>393</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>2024</v>
@@ -3533,25 +4937,25 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>140</v>
+        <v>395</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>141</v>
+        <v>396</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>142</v>
+        <v>397</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>2024</v>
@@ -3559,25 +4963,25 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>143</v>
+        <v>398</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>144</v>
+        <v>399</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>2024</v>
@@ -3585,25 +4989,25 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>147</v>
+        <v>402</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>148</v>
+        <v>403</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>2024</v>
@@ -3614,22 +5018,22 @@
         <v>64</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>151</v>
+        <v>406</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>153</v>
+        <v>408</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>154</v>
+        <v>409</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>2024</v>
@@ -3640,22 +5044,22 @@
         <v>64</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>156</v>
+        <v>411</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>157</v>
+        <v>412</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>2024</v>
@@ -3666,22 +5070,22 @@
         <v>64</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>159</v>
+        <v>414</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>160</v>
+        <v>415</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>2024</v>
@@ -3692,22 +5096,22 @@
         <v>64</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>164</v>
+        <v>419</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>165</v>
+        <v>420</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>166</v>
+        <v>421</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>2024</v>
@@ -3718,22 +5122,22 @@
         <v>64</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>167</v>
+        <v>422</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>169</v>
+        <v>424</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>170</v>
+        <v>425</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>2024</v>
@@ -3744,22 +5148,22 @@
         <v>64</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>174</v>
+        <v>429</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>2024</v>
@@ -3767,25 +5171,25 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>176</v>
+        <v>431</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>178</v>
+        <v>433</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>2024</v>
@@ -3793,25 +5197,25 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>179</v>
+        <v>434</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>180</v>
+        <v>435</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F105" s="0" t="s">
-        <v>182</v>
+        <v>436</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>2024</v>
@@ -3819,25 +5223,25 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>183</v>
+        <v>437</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>185</v>
+        <v>439</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>186</v>
+        <v>440</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>2024</v>
@@ -3845,25 +5249,25 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>187</v>
+        <v>441</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>188</v>
+        <v>442</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>189</v>
+        <v>443</v>
       </c>
       <c r="F107" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="G107" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="G107" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>2024</v>
@@ -3871,25 +5275,25 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>191</v>
+        <v>445</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>192</v>
+        <v>446</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>193</v>
+        <v>447</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>194</v>
+        <v>448</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>2024</v>
@@ -3900,22 +5304,22 @@
         <v>8</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>107</v>
+        <v>449</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>108</v>
+        <v>450</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>109</v>
+        <v>451</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>110</v>
+        <v>452</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>2024</v>
@@ -3926,22 +5330,22 @@
         <v>8</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>111</v>
+        <v>453</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>112</v>
+        <v>454</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>113</v>
+        <v>455</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>114</v>
+        <v>456</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>2024</v>
@@ -3952,22 +5356,22 @@
         <v>8</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>115</v>
+        <v>457</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>116</v>
+        <v>458</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>118</v>
+        <v>460</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>2024</v>
@@ -3978,22 +5382,22 @@
         <v>8</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>121</v>
+        <v>463</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>2024</v>
@@ -4004,22 +5408,22 @@
         <v>8</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>123</v>
+        <v>465</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>124</v>
+        <v>466</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>125</v>
+        <v>467</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>126</v>
+        <v>468</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>2024</v>
@@ -4027,25 +5431,25 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>127</v>
+        <v>469</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>130</v>
+        <v>472</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>2024</v>
@@ -4053,25 +5457,25 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>131</v>
+        <v>473</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>133</v>
+        <v>475</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>134</v>
+        <v>476</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>2024</v>
@@ -4079,25 +5483,25 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>136</v>
+        <v>478</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>2024</v>
@@ -4105,25 +5509,25 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>139</v>
+        <v>481</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>140</v>
+        <v>482</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>141</v>
+        <v>483</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>142</v>
+        <v>484</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>2024</v>
@@ -4131,25 +5535,25 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>143</v>
+        <v>485</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>144</v>
+        <v>486</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>145</v>
+        <v>487</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>146</v>
+        <v>488</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>2024</v>
@@ -4157,25 +5561,25 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>147</v>
+        <v>489</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>148</v>
+        <v>490</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>149</v>
+        <v>491</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>2024</v>
@@ -4186,22 +5590,22 @@
         <v>64</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>151</v>
+        <v>493</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>153</v>
+        <v>495</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>154</v>
+        <v>496</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>2024</v>
@@ -4212,22 +5616,22 @@
         <v>64</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>155</v>
+        <v>497</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>156</v>
+        <v>498</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>157</v>
+        <v>499</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>158</v>
+        <v>500</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>2024</v>
@@ -4238,22 +5642,22 @@
         <v>64</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>159</v>
+        <v>501</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>160</v>
+        <v>502</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>161</v>
+        <v>503</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>162</v>
+        <v>504</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>2024</v>
@@ -4261,210 +5665,210 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>163</v>
+        <v>505</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>164</v>
+        <v>506</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>165</v>
+        <v>507</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>166</v>
+        <v>508</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>169</v>
+        <v>511</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>170</v>
+        <v>512</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>171</v>
+        <v>513</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>172</v>
+        <v>514</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>173</v>
+        <v>515</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>174</v>
+        <v>516</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>175</v>
+        <v>517</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>177</v>
+        <v>519</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>179</v>
+        <v>521</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>180</v>
+        <v>522</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>181</v>
+        <v>523</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>182</v>
+        <v>524</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>183</v>
+        <v>525</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>185</v>
+        <v>527</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>186</v>
+        <v>528</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>187</v>
+        <v>529</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>188</v>
+        <v>530</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>189</v>
+        <v>531</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>191</v>
+        <v>533</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>192</v>
+        <v>534</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>194</v>
+        <v>536</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,19 +5876,19 @@
         <v>8</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>195</v>
+        <v>537</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>196</v>
+        <v>538</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>198</v>
+        <v>540</v>
       </c>
       <c r="G131" s="0" t="s">
         <v>14</v>
@@ -4498,19 +5902,19 @@
         <v>8</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>199</v>
+        <v>541</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>200</v>
+        <v>542</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>201</v>
+        <v>543</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>202</v>
+        <v>544</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>14</v>
@@ -4524,19 +5928,19 @@
         <v>8</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>203</v>
+        <v>545</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>204</v>
+        <v>546</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>205</v>
+        <v>547</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>206</v>
+        <v>548</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>14</v>
@@ -4547,22 +5951,22 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>207</v>
+        <v>549</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>208</v>
+        <v>550</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>209</v>
+        <v>551</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>210</v>
+        <v>552</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>14</v>
@@ -4573,22 +5977,22 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>211</v>
+        <v>553</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>212</v>
+        <v>554</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>213</v>
+        <v>555</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>214</v>
+        <v>556</v>
       </c>
       <c r="G135" s="0" t="s">
         <v>14</v>
@@ -4599,22 +6003,22 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>215</v>
+        <v>557</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>216</v>
+        <v>558</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>217</v>
+        <v>559</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>218</v>
+        <v>560</v>
       </c>
       <c r="G136" s="0" t="s">
         <v>14</v>
@@ -4625,22 +6029,22 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>219</v>
+        <v>561</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>220</v>
+        <v>562</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>221</v>
+        <v>563</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>222</v>
+        <v>564</v>
       </c>
       <c r="G137" s="0" t="s">
         <v>14</v>
@@ -4651,22 +6055,22 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>223</v>
+        <v>565</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>224</v>
+        <v>566</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>225</v>
+        <v>567</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>226</v>
+        <v>568</v>
       </c>
       <c r="G138" s="0" t="s">
         <v>14</v>
@@ -4677,22 +6081,22 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>227</v>
+        <v>569</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>228</v>
+        <v>570</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>229</v>
+        <v>571</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>230</v>
+        <v>572</v>
       </c>
       <c r="G139" s="0" t="s">
         <v>14</v>
@@ -4703,22 +6107,22 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>231</v>
+        <v>573</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>232</v>
+        <v>574</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>233</v>
+        <v>575</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>234</v>
+        <v>576</v>
       </c>
       <c r="G140" s="0" t="s">
         <v>14</v>
@@ -4729,22 +6133,22 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>235</v>
+        <v>577</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>236</v>
+        <v>578</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>237</v>
+        <v>579</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>238</v>
+        <v>580</v>
       </c>
       <c r="G141" s="0" t="s">
         <v>14</v>
@@ -4758,19 +6162,19 @@
         <v>64</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>239</v>
+        <v>581</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>240</v>
+        <v>582</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>242</v>
+        <v>584</v>
       </c>
       <c r="G142" s="0" t="s">
         <v>14</v>
@@ -4784,19 +6188,19 @@
         <v>64</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>243</v>
+        <v>585</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>244</v>
+        <v>586</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>245</v>
+        <v>587</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>246</v>
+        <v>588</v>
       </c>
       <c r="G143" s="0" t="s">
         <v>14</v>
@@ -4810,19 +6214,19 @@
         <v>64</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>247</v>
+        <v>589</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>248</v>
+        <v>590</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>249</v>
+        <v>591</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>250</v>
+        <v>592</v>
       </c>
       <c r="G144" s="0" t="s">
         <v>14</v>
@@ -4833,25 +6237,25 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>251</v>
+        <v>593</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>252</v>
+        <v>594</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>253</v>
+        <v>595</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>254</v>
+        <v>596</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>2025</v>
@@ -4859,25 +6263,25 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>255</v>
+        <v>597</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>256</v>
+        <v>598</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>257</v>
+        <v>599</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>258</v>
+        <v>600</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>2025</v>
@@ -4885,25 +6289,25 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>259</v>
+        <v>601</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>260</v>
+        <v>602</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>261</v>
+        <v>603</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>262</v>
+        <v>604</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>2025</v>
@@ -4911,25 +6315,25 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>263</v>
+        <v>605</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>264</v>
+        <v>606</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>265</v>
+        <v>607</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>266</v>
+        <v>608</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>2025</v>
@@ -4937,25 +6341,25 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>267</v>
+        <v>609</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>268</v>
+        <v>610</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>269</v>
+        <v>611</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>270</v>
+        <v>612</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>2025</v>
@@ -4963,25 +6367,25 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>271</v>
+        <v>613</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>272</v>
+        <v>614</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>273</v>
+        <v>615</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>274</v>
+        <v>616</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>2025</v>
@@ -4989,25 +6393,25 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>275</v>
+        <v>617</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>276</v>
+        <v>618</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>277</v>
+        <v>619</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>278</v>
+        <v>620</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>2025</v>
@@ -5015,25 +6419,25 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>279</v>
+        <v>621</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>280</v>
+        <v>622</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>281</v>
+        <v>623</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>282</v>
+        <v>624</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>2025</v>
@@ -5044,22 +6448,22 @@
         <v>8</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>195</v>
+        <v>625</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>196</v>
+        <v>626</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>198</v>
+        <v>627</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>2025</v>
@@ -5070,22 +6474,22 @@
         <v>8</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>199</v>
+        <v>628</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>200</v>
+        <v>629</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>201</v>
+        <v>630</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>2025</v>
@@ -5096,22 +6500,22 @@
         <v>8</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>203</v>
+        <v>632</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>204</v>
+        <v>633</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>205</v>
+        <v>634</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>206</v>
+        <v>635</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>2025</v>
@@ -5119,25 +6523,25 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>207</v>
+        <v>636</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>208</v>
+        <v>637</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>209</v>
+        <v>638</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>210</v>
+        <v>639</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>2025</v>
@@ -5145,25 +6549,25 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>211</v>
+        <v>640</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>212</v>
+        <v>641</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>213</v>
+        <v>642</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>214</v>
+        <v>643</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>2025</v>
@@ -5171,25 +6575,25 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>215</v>
+        <v>644</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>216</v>
+        <v>645</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>217</v>
+        <v>646</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>218</v>
+        <v>647</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>2025</v>
@@ -5197,25 +6601,25 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>219</v>
+        <v>648</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>220</v>
+        <v>649</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>221</v>
+        <v>650</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>222</v>
+        <v>651</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>2025</v>
@@ -5223,25 +6627,25 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>223</v>
+        <v>652</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>224</v>
+        <v>653</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>225</v>
+        <v>654</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>226</v>
+        <v>655</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>2025</v>
@@ -5249,25 +6653,25 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>227</v>
+        <v>656</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>228</v>
+        <v>657</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>229</v>
+        <v>658</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>230</v>
+        <v>659</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>2025</v>
@@ -5275,25 +6679,25 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>231</v>
+        <v>660</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>232</v>
+        <v>661</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>233</v>
+        <v>662</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>234</v>
+        <v>663</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>2025</v>
@@ -5301,25 +6705,25 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>235</v>
+        <v>664</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>236</v>
+        <v>665</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>237</v>
+        <v>666</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>238</v>
+        <v>667</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>2025</v>
@@ -5330,22 +6734,22 @@
         <v>64</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>239</v>
+        <v>668</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>240</v>
+        <v>669</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>241</v>
+        <v>670</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>242</v>
+        <v>671</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>2025</v>
@@ -5356,22 +6760,22 @@
         <v>64</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>243</v>
+        <v>672</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>244</v>
+        <v>673</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>245</v>
+        <v>674</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>246</v>
+        <v>675</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>2025</v>
@@ -5379,25 +6783,25 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>247</v>
+        <v>676</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>248</v>
+        <v>677</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>249</v>
+        <v>678</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>250</v>
+        <v>679</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>2025</v>
@@ -5405,25 +6809,25 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>251</v>
+        <v>680</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>252</v>
+        <v>681</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F167" s="0" t="s">
-        <v>254</v>
+        <v>682</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>2025</v>
@@ -5431,25 +6835,25 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>255</v>
+        <v>683</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>256</v>
+        <v>684</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>257</v>
+        <v>685</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>258</v>
+        <v>686</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>2025</v>
@@ -5457,25 +6861,25 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>259</v>
+        <v>687</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>260</v>
+        <v>688</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>261</v>
+        <v>689</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>262</v>
+        <v>690</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>2025</v>
@@ -5483,25 +6887,25 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>263</v>
+        <v>691</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>264</v>
+        <v>692</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>265</v>
+        <v>693</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>266</v>
+        <v>694</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>2025</v>
@@ -5509,25 +6913,25 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>267</v>
+        <v>695</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>268</v>
+        <v>696</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>269</v>
+        <v>697</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>270</v>
+        <v>698</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>2025</v>
@@ -5535,25 +6939,25 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>271</v>
+        <v>699</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>272</v>
+        <v>700</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>273</v>
+        <v>701</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>274</v>
+        <v>702</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>2025</v>
@@ -5561,25 +6965,25 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>275</v>
+        <v>703</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>276</v>
+        <v>704</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>277</v>
+        <v>705</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>278</v>
+        <v>706</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>2025</v>
@@ -5587,25 +6991,25 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>279</v>
+        <v>707</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>280</v>
+        <v>708</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>281</v>
+        <v>709</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>282</v>
+        <v>710</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>2025</v>
@@ -5616,22 +7020,22 @@
         <v>8</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>195</v>
+        <v>711</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>196</v>
+        <v>712</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>197</v>
+        <v>713</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>198</v>
+        <v>714</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>2025</v>
@@ -5639,25 +7043,25 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>199</v>
+        <v>715</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>200</v>
+        <v>716</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>201</v>
+        <v>717</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>202</v>
+        <v>718</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>2025</v>
@@ -5665,25 +7069,25 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>203</v>
+        <v>719</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>204</v>
+        <v>720</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>205</v>
+        <v>721</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>206</v>
+        <v>722</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>2025</v>
@@ -5691,25 +7095,25 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>207</v>
+        <v>723</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>208</v>
+        <v>724</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>209</v>
+        <v>725</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>210</v>
+        <v>726</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>2025</v>
@@ -5717,25 +7121,25 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>211</v>
+        <v>727</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>212</v>
+        <v>728</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>213</v>
+        <v>729</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>214</v>
+        <v>730</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>2025</v>
@@ -5743,25 +7147,25 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>35</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>215</v>
+        <v>731</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>216</v>
+        <v>732</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>217</v>
+        <v>733</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>218</v>
+        <v>734</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>2025</v>
@@ -5769,25 +7173,25 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>40</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>219</v>
+        <v>735</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>220</v>
+        <v>736</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>221</v>
+        <v>737</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>222</v>
+        <v>738</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>2025</v>
@@ -5795,25 +7199,25 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>223</v>
+        <v>739</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>224</v>
+        <v>740</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>225</v>
+        <v>741</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>226</v>
+        <v>742</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>2025</v>
@@ -5821,25 +7225,25 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>227</v>
+        <v>743</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>228</v>
+        <v>744</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>229</v>
+        <v>745</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>230</v>
+        <v>746</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>2025</v>
@@ -5847,339 +7251,27 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>231</v>
+        <v>747</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>232</v>
+        <v>748</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>233</v>
+        <v>749</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>234</v>
+        <v>750</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C185" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D185" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="F185" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="G185" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H185" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D186" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="F186" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="G186" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H186" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D187" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="F187" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="G187" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H187" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D188" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E188" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="F188" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="G188" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H188" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D189" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="F189" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="G189" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H189" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="F190" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="G190" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H190" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C191" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D191" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="F191" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="G191" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H191" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C192" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D192" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="F192" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="G192" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H192" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C193" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D193" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="F193" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="G193" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H193" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C194" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="D194" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="F194" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="G194" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H194" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="D195" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="F195" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="G195" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H195" s="0" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C196" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D196" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E196" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="F196" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="G196" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="H196" s="0" t="n">
         <v>2025</v>
       </c>
     </row>
